--- a/small projects/invoice.xlsx
+++ b/small projects/invoice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>hellokitty</t>
+  </si>
+  <si>
+    <t>mami</t>
   </si>
 </sst>
 </file>
@@ -386,27 +392,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12.45</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>62.25</v>
       </c>
     </row>
   </sheetData>
